--- a/data/book_writers.xlsx
+++ b/data/book_writers.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ACER\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\semester 7\Data mining\IR search engine\IR_Project-Song_Search_Engine\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D37189B-D867-49FC-A273-BE60C2DC80D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B095F87-C57E-4354-BE9F-054BEFA99EFC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6936" yWindow="1032" windowWidth="14076" windowHeight="9072" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="754">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="942" uniqueCount="761">
   <si>
     <t>name</t>
   </si>
@@ -2907,6 +2907,29 @@
   </si>
   <si>
     <t>description</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jayalal Rohana
+</t>
+  </si>
+  <si>
+    <t>Gamini Haththotuwegama</t>
+  </si>
+  <si>
+    <t>Sayman Nawaththegama</t>
+  </si>
+  <si>
+    <t>Anuradhapura</t>
+  </si>
+  <si>
+    <t>Wijayathunga Mudalige Harishchandra Wijayathunga</t>
+  </si>
+  <si>
+    <t>Minuwangoda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">K. K. E. V. Brito Adikaram
+</t>
   </si>
 </sst>
 </file>
@@ -3647,8 +3670,8 @@
   </sheetPr>
   <dimension ref="A1:AA992"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -5628,14 +5651,18 @@
       <c r="A42" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="B42" s="3"/>
+      <c r="B42" s="3" t="s">
+        <v>755</v>
+      </c>
       <c r="C42" s="3" t="s">
         <v>322</v>
       </c>
       <c r="D42" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="E42" s="3"/>
+      <c r="E42" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="F42" s="3" t="s">
         <v>283</v>
       </c>
@@ -5867,14 +5894,18 @@
       <c r="A47" s="21" t="s">
         <v>351</v>
       </c>
-      <c r="B47" s="21"/>
+      <c r="B47" s="21" t="s">
+        <v>756</v>
+      </c>
       <c r="C47" s="22" t="s">
         <v>352</v>
       </c>
       <c r="D47" s="3" t="s">
         <v>353</v>
       </c>
-      <c r="E47" s="3"/>
+      <c r="E47" s="3" t="s">
+        <v>757</v>
+      </c>
       <c r="F47" s="4"/>
       <c r="G47" s="11" t="s">
         <v>354</v>
@@ -5910,14 +5941,18 @@
       <c r="A48" s="3" t="s">
         <v>357</v>
       </c>
-      <c r="B48" s="3"/>
+      <c r="B48" s="3" t="s">
+        <v>754</v>
+      </c>
       <c r="C48" s="45" t="s">
         <v>358</v>
       </c>
       <c r="D48" s="45" t="s">
         <v>198</v>
       </c>
-      <c r="E48" s="45"/>
+      <c r="E48" s="45" t="s">
+        <v>209</v>
+      </c>
       <c r="F48" s="45" t="s">
         <v>359</v>
       </c>
@@ -6096,14 +6131,18 @@
       <c r="A52" s="47" t="s">
         <v>383</v>
       </c>
-      <c r="B52" s="47"/>
+      <c r="B52" s="47" t="s">
+        <v>758</v>
+      </c>
       <c r="C52" s="22" t="s">
         <v>384</v>
       </c>
       <c r="D52" s="22" t="s">
         <v>385</v>
       </c>
-      <c r="E52" s="22"/>
+      <c r="E52" s="22" t="s">
+        <v>759</v>
+      </c>
       <c r="F52" s="3" t="s">
         <v>386</v>
       </c>
@@ -6237,14 +6276,18 @@
       <c r="A55" s="3" t="s">
         <v>407</v>
       </c>
-      <c r="B55" s="3"/>
+      <c r="B55" s="3" t="s">
+        <v>760</v>
+      </c>
       <c r="C55" s="11" t="s">
         <v>408</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>402</v>
       </c>
-      <c r="E55" s="11"/>
+      <c r="E55" s="11" t="s">
+        <v>403</v>
+      </c>
       <c r="F55" s="11" t="s">
         <v>409</v>
       </c>
